--- a/KiCAD/PCB/production/bom_elecrow.xlsx
+++ b/KiCAD/PCB/production/bom_elecrow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymkn\Documents\KiCad\7.0\projects\Neige\KiCAD\PCB\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d8200776c2d08ec/Documents/KiCad/7.0/projects/Neige/KiCAD/PCB/production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B0E9A-4F1E-432E-96CF-1CE2594D5442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BA30B0FC-D33B-48EB-A2E3-6B35E10EBB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5DFD187-EA8F-45AB-A9D1-B44FAC9D4E5B}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="22177" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>*Reference</t>
   </si>
@@ -56,7 +56,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>：</t>
     </r>
@@ -70,9 +69,6 @@
   </si>
   <si>
     <t>BTN_BOOT1</t>
-  </si>
-  <si>
-    <t>C10, C5, C6, C7, C8, C9</t>
   </si>
   <si>
     <t>C3, C4</t>
@@ -336,6 +332,58 @@
     <t>https://www.kailhswitch.com/mechanical-keyboard-switches/box-switches/choc-type-hot-swap-socket.html</t>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>10nF 50V X7R ±10% 0402 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05B103KB5NNNC_C15195.html?s_z=n_C15195</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>CL05B103KB5NNNC</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C11, C12</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C13</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>CL05A475MP5NRNC</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>10V 4.7uF X5R ±20% 0402 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05A475MP5NRNC_C23733.html?s_z=n_C23733</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>25V 1uF X5R ±10% 0402 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05A105KA5NQNC_C52923.html?s_z=n_C52923</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C10, C5, C6, C7, C8</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +415,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -418,7 +465,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
@@ -856,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -896,285 +942,345 @@
         <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="54">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C3" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="54">
       <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="54">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="40.5">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="54">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="57">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="54">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="57">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="40.5">
       <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9">
         <v>36</v>
       </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="57">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="27">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="57">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="57">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F11" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="57">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="27">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="54">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="67.5">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="27">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="54">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="67.5">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="40.5">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="40.5">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="13.5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="13.5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="15.75">
-      <c r="A17" s="14" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="15">
-      <c r="A18" s="15" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="15.75">
+      <c r="A20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="15">
+      <c r="A21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1182,17 +1288,20 @@
   <phoneticPr fontId="12"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{0BA3A019-6385-49E1-9F7D-1C14C483EA05}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{91E5C67F-4C94-41FB-8A08-D59A34ACDFB1}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{DF4CA9BF-5E2F-4C69-9A2F-A80E2F79872F}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{EFD09E58-91C4-4DA2-BA5A-AA7DB02ACE5F}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{0940AFE2-924B-431A-BBBA-F0F12355F113}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{4A7A044E-6038-49E2-9C79-562A517974A6}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{CE9310C5-BD35-41C8-9F49-C5EB46D6B1F9}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{04E2D122-11E3-4FEC-9E1D-7681326D3C7E}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{13D842C0-D051-40C2-A168-1D7CF3A9F792}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{1E49B94A-E9E5-432B-AD44-0853FCA27B19}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{93CD18F7-E70B-49B3-BF16-469BD47D2637}"/>
-    <hyperlink ref="F10" r:id="rId12" xr:uid="{5690DCCD-96A0-4345-A9E3-47A98D79665A}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{91E5C67F-4C94-41FB-8A08-D59A34ACDFB1}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{DF4CA9BF-5E2F-4C69-9A2F-A80E2F79872F}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{EFD09E58-91C4-4DA2-BA5A-AA7DB02ACE5F}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{0940AFE2-924B-431A-BBBA-F0F12355F113}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{4A7A044E-6038-49E2-9C79-562A517974A6}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{CE9310C5-BD35-41C8-9F49-C5EB46D6B1F9}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{04E2D122-11E3-4FEC-9E1D-7681326D3C7E}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{13D842C0-D051-40C2-A168-1D7CF3A9F792}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{1E49B94A-E9E5-432B-AD44-0853FCA27B19}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{93CD18F7-E70B-49B3-BF16-469BD47D2637}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{5690DCCD-96A0-4345-A9E3-47A98D79665A}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{FEE75554-7F06-4B90-A0BA-D3DAF78E196A}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{4B429899-C530-41AE-90B0-C1DE3AEE94D3}"/>
+    <hyperlink ref="F7" r:id="rId15" xr:uid="{2AB1F98E-2480-451F-8C2F-2B82602D404A}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
